--- a/Data/EC/NIT-8001793962.xlsx
+++ b/Data/EC/NIT-8001793962.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8024A46B-7698-4100-ABB9-C95CB442C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F820ACE8-4B9E-4895-896D-753323E07E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2E20E912-4921-4048-B357-0ECD46E7970B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CBC32E27-41C5-4E6C-8419-BC8DC4520658}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>LILIAN MILENA HERRERA FIGUEROA</t>
   </si>
   <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>2304</t>
   </si>
   <si>
+    <t>8828922</t>
+  </si>
+  <si>
+    <t>ANTONINO RAMOS SAAVEDRA</t>
+  </si>
+  <si>
     <t>1050556709</t>
   </si>
   <si>
     <t>DEIVER STIVEN RAMOS BARBA</t>
   </si>
   <si>
+    <t>1002361731</t>
+  </si>
+  <si>
+    <t>DIDIER IVAN RAMOS BARBA</t>
+  </si>
+  <si>
+    <t>1050554318</t>
+  </si>
+  <si>
+    <t>ABEL ANTONIO PADILLA ESCOBAR</t>
+  </si>
+  <si>
+    <t>13620423</t>
+  </si>
+  <si>
+    <t>GELSON CUELLAR NOGUERA</t>
+  </si>
+  <si>
     <t>91323747</t>
   </si>
   <si>
     <t>JORGE MEJIA BELTRAN</t>
-  </si>
-  <si>
-    <t>8828922</t>
-  </si>
-  <si>
-    <t>ANTONINO RAMOS SAAVEDRA</t>
-  </si>
-  <si>
-    <t>1050554318</t>
-  </si>
-  <si>
-    <t>ABEL ANTONIO PADILLA ESCOBAR</t>
-  </si>
-  <si>
-    <t>1002361731</t>
-  </si>
-  <si>
-    <t>DIDIER IVAN RAMOS BARBA</t>
-  </si>
-  <si>
-    <t>13620423</t>
-  </si>
-  <si>
-    <t>GELSON CUELLAR NOGUERA</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEADBE10-1AC8-A3B1-5AA3-04CB3B6E4CFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508483E0-4887-E30D-CC1F-B4E01E6EA514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5C94D3-BD69-4706-9A1A-9E0929941604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DE50D1-F6A0-49CA-833E-EA807D3A873D}">
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>35574</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1082,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1105,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1128,13 +1128,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1151,13 +1151,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1174,13 +1174,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1220,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>35574</v>
       </c>
       <c r="G23" s="18">
         <v>1160000</v>
@@ -1243,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1266,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1289,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1312,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1341,7 +1341,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1358,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1381,16 +1381,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>35574</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1404,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1427,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1456,7 +1456,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1473,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1496,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1548,10 +1548,10 @@
         <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>35574</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1565,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1588,13 +1588,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1611,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1634,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1657,13 +1657,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1680,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1703,16 +1703,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>35574</v>
       </c>
       <c r="G44" s="18">
         <v>1160000</v>
@@ -1726,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1749,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
@@ -1772,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1795,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1818,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1841,13 +1841,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1864,16 +1864,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>46400</v>
+        <v>35574</v>
       </c>
       <c r="G51" s="18">
         <v>1160000</v>
@@ -1887,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -1910,13 +1910,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -1933,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -1956,13 +1956,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -1979,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2002,13 +2002,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2025,13 +2025,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18">
         <v>35574</v>
@@ -2048,16 +2048,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F59" s="18">
-        <v>35574</v>
+        <v>46400</v>
       </c>
       <c r="G59" s="18">
         <v>1160000</v>
@@ -2071,16 +2071,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F60" s="18">
-        <v>35574</v>
+        <v>46400</v>
       </c>
       <c r="G60" s="18">
         <v>1160000</v>
@@ -2094,16 +2094,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F61" s="18">
-        <v>35574</v>
+        <v>46400</v>
       </c>
       <c r="G61" s="18">
         <v>1160000</v>
@@ -2117,16 +2117,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F62" s="18">
-        <v>35574</v>
+        <v>46400</v>
       </c>
       <c r="G62" s="18">
         <v>1160000</v>
@@ -2140,16 +2140,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F63" s="18">
-        <v>35574</v>
+        <v>46400</v>
       </c>
       <c r="G63" s="18">
         <v>1160000</v>
@@ -2163,16 +2163,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F64" s="24">
-        <v>35574</v>
+        <v>46400</v>
       </c>
       <c r="G64" s="24">
         <v>1160000</v>
